--- a/config_debug/fish3d_hall_config.xlsx
+++ b/config_debug/fish3d_hall_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -545,7 +545,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -656,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="8">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="8">
         <v>2000000</v>
@@ -694,7 +694,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="8">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="H4" s="8">
         <v>20000000</v>
@@ -732,7 +732,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="4">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="2">
@@ -765,7 +765,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="4">
-        <v>1000000</v>
+        <v>5000000</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="2">

--- a/config_debug/fish3d_hall_config.xlsx
+++ b/config_debug/fish3d_hall_config.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>sceneID|场景ID</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -90,31 +90,35 @@
     <t>10000,20000,30000,40000,50000,60000,70000,80000,90000,100000,</t>
   </si>
   <si>
+    <t>100000,200000,300000,400000,500000,600000,700000,800000,900000,1000000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>试炼场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘海域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海底宝藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏宝海湾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海沉船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>game_Fishing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100000,200000,300000,400000,500000,600000,700000,800000,900000,1000000,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>试炼场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘海域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海底宝藏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>藏宝海湾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海沉船</t>
+    <t>lvevl|等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -553,16 +557,16 @@
     <col min="1" max="2" width="8.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="2" customWidth="1"/>
-    <col min="7" max="9" width="22" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="2"/>
-    <col min="12" max="12" width="72.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.875" style="2"/>
+    <col min="5" max="6" width="22" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="2" customWidth="1"/>
+    <col min="8" max="10" width="22" style="2" customWidth="1"/>
+    <col min="11" max="11" width="20.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.875" style="2"/>
+    <col min="13" max="13" width="72.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -579,28 +583,31 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -608,35 +615,38 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="4">
         <v>27</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4">
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4">
         <v>50000</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>1</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>0</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>20000</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -644,7 +654,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4">
         <v>27</v>
@@ -653,28 +663,29 @@
         <v>4</v>
       </c>
       <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
         <v>2</v>
       </c>
-      <c r="G3" s="8">
+      <c r="H3" s="8">
         <v>20000</v>
       </c>
-      <c r="H3" s="8">
-        <v>2000000</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="I3" s="8"/>
+      <c r="J3" s="2">
         <v>1</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>20001</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>999999</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="M3" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -682,7 +693,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4">
         <v>27</v>
@@ -691,28 +702,29 @@
         <v>4</v>
       </c>
       <c r="F4" s="4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4">
         <v>3</v>
       </c>
-      <c r="G4" s="8">
+      <c r="H4" s="8">
         <v>100000</v>
       </c>
-      <c r="H4" s="8">
-        <v>20000000</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="I4" s="8"/>
+      <c r="J4" s="2">
         <v>1</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>1000000</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>9999999</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -720,7 +732,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4">
         <v>27</v>
@@ -729,23 +741,26 @@
         <v>4</v>
       </c>
       <c r="F5" s="4">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4">
         <v>4</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>1000000</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="2">
+      <c r="I5" s="8"/>
+      <c r="J5" s="2">
         <v>1</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>10000000</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="M5" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -753,7 +768,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4">
         <v>27</v>
@@ -762,285 +777,322 @@
         <v>4</v>
       </c>
       <c r="F6" s="4">
+        <v>20</v>
+      </c>
+      <c r="G6" s="4">
         <v>5</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>5000000</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="2">
+      <c r="I6" s="8"/>
+      <c r="J6" s="2">
         <v>1</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>100000000</v>
       </c>
-      <c r="L6" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M6" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D9" s="4"/>
       <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D11" s="4"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="4"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="4:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="4:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="4:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="4:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="4:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="4:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="4:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="4:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="4:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="4:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="4:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="4:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="4:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="4:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="4:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J24" s="6"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="4:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="4:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J25" s="4"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="4:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="4:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J26" s="4"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="4:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="4:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J27" s="5"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="4:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="4:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J28" s="4"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="4:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="4:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="4:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="4:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="4:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="4:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="4:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="4:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="4:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="4:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="4:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="4:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="4:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config_debug/fish3d_hall_config.xlsx
+++ b/config_debug/fish3d_hall_config.xlsx
@@ -549,7 +549,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -702,7 +702,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G4" s="4">
         <v>3</v>
@@ -741,7 +741,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G5" s="4">
         <v>4</v>
@@ -777,7 +777,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G6" s="4">
         <v>5</v>

--- a/config_debug/fish3d_hall_config.xlsx
+++ b/config_debug/fish3d_hall_config.xlsx
@@ -549,7 +549,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -631,7 +631,7 @@
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4">
-        <v>50000</v>
+        <v>15000000</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>

--- a/config_debug/fish3d_hall_config.xlsx
+++ b/config_debug/fish3d_hall_config.xlsx
@@ -549,7 +549,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -631,7 +631,7 @@
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4">
-        <v>15000000</v>
+        <v>50000</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
@@ -671,7 +671,9 @@
       <c r="H3" s="8">
         <v>20000</v>
       </c>
-      <c r="I3" s="8"/>
+      <c r="I3" s="8">
+        <v>2000000</v>
+      </c>
       <c r="J3" s="2">
         <v>1</v>
       </c>
@@ -710,7 +712,9 @@
       <c r="H4" s="8">
         <v>100000</v>
       </c>
-      <c r="I4" s="8"/>
+      <c r="I4" s="8">
+        <v>20000000</v>
+      </c>
       <c r="J4" s="2">
         <v>1</v>
       </c>

--- a/config_debug/fish3d_hall_config.xlsx
+++ b/config_debug/fish3d_hall_config.xlsx
@@ -549,7 +549,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,8 @@
     <col min="1" max="2" width="8.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.75" style="2" customWidth="1"/>
-    <col min="5" max="6" width="22" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5" style="2" customWidth="1"/>
     <col min="8" max="10" width="22" style="2" customWidth="1"/>
     <col min="11" max="11" width="20.125" style="2" customWidth="1"/>
@@ -704,7 +705,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" s="4">
         <v>3</v>
@@ -745,7 +746,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4">
         <v>4</v>
@@ -781,7 +782,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G6" s="4">
         <v>5</v>

--- a/config_debug/fish3d_hall_config.xlsx
+++ b/config_debug/fish3d_hall_config.xlsx
@@ -549,7 +549,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -632,7 +632,7 @@
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4">
-        <v>50000</v>
+        <v>200000</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>

--- a/config_debug/fish3d_hall_config.xlsx
+++ b/config_debug/fish3d_hall_config.xlsx
@@ -672,9 +672,7 @@
       <c r="H3" s="8">
         <v>20000</v>
       </c>
-      <c r="I3" s="8">
-        <v>2000000</v>
-      </c>
+      <c r="I3" s="8"/>
       <c r="J3" s="2">
         <v>1</v>
       </c>
@@ -713,9 +711,7 @@
       <c r="H4" s="8">
         <v>100000</v>
       </c>
-      <c r="I4" s="8">
-        <v>20000000</v>
-      </c>
+      <c r="I4" s="8"/>
       <c r="J4" s="2">
         <v>1</v>
       </c>

--- a/config_debug/fish3d_hall_config.xlsx
+++ b/config_debug/fish3d_hall_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -688,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="2">
-        <v>0</v>
+        <v>100001</v>
       </c>
       <c r="L3" s="2">
         <v>499999</v>

--- a/config_debug/fish3d_hall_config.xlsx
+++ b/config_debug/fish3d_hall_config.xlsx
@@ -559,7 +559,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -643,7 +643,7 @@
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
